--- a/JOBCON/DIMARANAN, JOEL.xlsx
+++ b/JOBCON/DIMARANAN, JOEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D5F9ED-A544-4E21-9811-ADCAFC2FE781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -180,12 +179,18 @@
   </si>
   <si>
     <t>JOBCON</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -832,7 +837,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -878,25 +882,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1203,34 +1207,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
+      <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1255,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1270,7 +1274,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1291,7 +1295,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1306,7 +1310,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1319,7 +1323,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="52" t="s">
@@ -1336,7 +1340,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1395,7 +1399,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1417,7 +1421,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44803</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44839</v>
       </c>
@@ -1465,8 +1469,10 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="B13" s="21"/>
       <c r="C13" s="14"/>
       <c r="D13" s="39"/>
@@ -1481,13 +1487,19 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="39"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
       <c r="G14" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -1495,9 +1507,11 @@
       <c r="H14" s="39"/>
       <c r="I14" s="10"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="49">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="21"/>
       <c r="C15" s="14"/>
@@ -1513,7 +1527,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="16"/>
       <c r="C16" s="42"/>
@@ -1529,7 +1543,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="21"/>
       <c r="C17" s="14"/>
@@ -1545,7 +1559,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="21"/>
       <c r="C18" s="14"/>
@@ -1561,7 +1575,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="21"/>
       <c r="C19" s="14"/>
@@ -1577,7 +1591,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="21"/>
       <c r="C20" s="14"/>
@@ -1593,7 +1607,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="21"/>
       <c r="C21" s="14"/>
@@ -1609,7 +1623,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="21"/>
       <c r="C22" s="14"/>
@@ -1625,7 +1639,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="21"/>
       <c r="C23" s="14"/>
@@ -1641,7 +1655,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="21"/>
       <c r="C24" s="14"/>
@@ -1657,7 +1671,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="21"/>
       <c r="C25" s="14"/>
@@ -1673,7 +1687,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="21"/>
       <c r="C26" s="14"/>
@@ -1689,7 +1703,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="21"/>
       <c r="C27" s="14"/>
@@ -1705,7 +1719,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="21"/>
       <c r="C28" s="14"/>
@@ -1721,7 +1735,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="21"/>
       <c r="C29" s="14"/>
@@ -1737,7 +1751,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="21"/>
       <c r="C30" s="14"/>
@@ -1753,7 +1767,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="21"/>
       <c r="C31" s="14"/>
@@ -1769,7 +1783,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="21"/>
       <c r="C32" s="14"/>
@@ -1785,7 +1799,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="21"/>
       <c r="C33" s="14"/>
@@ -1801,7 +1815,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="21"/>
       <c r="C34" s="14"/>
@@ -1817,7 +1831,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="21"/>
       <c r="C35" s="14"/>
@@ -1833,7 +1847,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="21"/>
       <c r="C36" s="14"/>
@@ -1849,7 +1863,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="21"/>
       <c r="C37" s="14"/>
@@ -1865,7 +1879,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="21"/>
       <c r="C38" s="14"/>
@@ -1881,7 +1895,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="21"/>
       <c r="C39" s="14"/>
@@ -1897,7 +1911,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="21"/>
       <c r="C40" s="14"/>
@@ -1913,7 +1927,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="21"/>
       <c r="C41" s="14"/>
@@ -1929,7 +1943,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="21"/>
       <c r="C42" s="14"/>
@@ -1945,7 +1959,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="21"/>
       <c r="C43" s="14"/>
@@ -1961,7 +1975,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="21"/>
       <c r="C44" s="14"/>
@@ -1977,7 +1991,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="21"/>
       <c r="C45" s="14"/>
@@ -1993,7 +2007,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="21"/>
       <c r="C46" s="14"/>
@@ -2009,7 +2023,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="21"/>
       <c r="C47" s="14"/>
@@ -2025,7 +2039,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="21"/>
       <c r="C48" s="14"/>
@@ -2041,7 +2055,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="21"/>
       <c r="C49" s="14"/>
@@ -2057,7 +2071,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="21"/>
       <c r="C50" s="14"/>
@@ -2073,7 +2087,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="21"/>
       <c r="C51" s="14"/>
@@ -2089,7 +2103,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="21"/>
       <c r="C52" s="14"/>
@@ -2105,7 +2119,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="21"/>
       <c r="C53" s="14"/>
@@ -2121,7 +2135,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="21"/>
       <c r="C54" s="14"/>
@@ -2137,7 +2151,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="21"/>
       <c r="C55" s="14"/>
@@ -2153,7 +2167,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="21"/>
       <c r="C56" s="14"/>
@@ -2169,7 +2183,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="21"/>
       <c r="C57" s="14"/>
@@ -2185,7 +2199,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="21"/>
       <c r="C58" s="14"/>
@@ -2201,7 +2215,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="21"/>
       <c r="C59" s="14"/>
@@ -2217,7 +2231,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="21"/>
       <c r="C60" s="14"/>
@@ -2233,7 +2247,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="21"/>
       <c r="C61" s="14"/>
@@ -2249,7 +2263,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="21"/>
       <c r="C62" s="14"/>
@@ -2265,7 +2279,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="21"/>
       <c r="C63" s="14"/>
@@ -2281,7 +2295,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="21"/>
       <c r="C64" s="14"/>
@@ -2297,7 +2311,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="21"/>
       <c r="C65" s="14"/>
@@ -2313,7 +2327,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="21"/>
       <c r="C66" s="14"/>
@@ -2329,7 +2343,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="21"/>
       <c r="C67" s="14"/>
@@ -2345,7 +2359,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="21"/>
       <c r="C68" s="14"/>
@@ -2361,7 +2375,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="21"/>
       <c r="C69" s="14"/>
@@ -2377,7 +2391,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="21"/>
       <c r="C70" s="14"/>
@@ -2393,7 +2407,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="21"/>
       <c r="C71" s="14"/>
@@ -2409,7 +2423,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="21"/>
       <c r="C72" s="14"/>
@@ -2425,7 +2439,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="21"/>
       <c r="C73" s="14"/>
@@ -2441,7 +2455,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="21"/>
       <c r="C74" s="14"/>
@@ -2457,7 +2471,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -2473,7 +2487,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
@@ -2489,7 +2503,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="21"/>
       <c r="C77" s="14"/>
@@ -2505,7 +2519,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -2521,7 +2535,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -2537,7 +2551,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -2553,7 +2567,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -2569,7 +2583,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -2585,7 +2599,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -2601,7 +2615,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -2617,7 +2631,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -2633,7 +2647,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -2649,7 +2663,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -2665,7 +2679,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -2681,7 +2695,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -2697,7 +2711,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -2713,7 +2727,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -2729,7 +2743,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -2745,7 +2759,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -2761,7 +2775,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -2777,7 +2791,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -2793,7 +2807,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -2809,7 +2823,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -2825,7 +2839,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -2841,7 +2855,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -2857,7 +2871,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -2873,7 +2887,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -2889,7 +2903,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -2905,7 +2919,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -2921,7 +2935,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -2937,7 +2951,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -2953,7 +2967,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -2969,7 +2983,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -2985,7 +2999,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3001,7 +3015,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3017,7 +3031,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3033,7 +3047,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3049,7 +3063,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3065,7 +3079,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3081,7 +3095,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3097,7 +3111,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3113,7 +3127,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3129,7 +3143,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3145,7 +3159,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3161,7 +3175,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3177,7 +3191,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3193,7 +3207,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3209,7 +3223,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3225,7 +3239,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3241,7 +3255,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3257,7 +3271,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3273,7 +3287,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3289,7 +3303,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3305,7 +3319,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3321,7 +3335,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -3337,7 +3351,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="16"/>
       <c r="C130" s="42"/>
@@ -3368,10 +3382,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3394,28 +3408,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -3428,7 +3442,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -3457,7 +3471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -3477,17 +3491,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
@@ -3508,7 +3522,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="46">
         <v>1</v>
       </c>
@@ -3535,7 +3549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -3561,7 +3575,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -3587,7 +3601,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -3613,7 +3627,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -3639,7 +3653,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -3665,7 +3679,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -3691,7 +3705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -3717,7 +3731,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -3737,7 +3751,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -3757,7 +3771,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -3777,7 +3791,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -3798,7 +3812,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -3819,7 +3833,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -3840,7 +3854,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -3861,7 +3875,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -3882,7 +3896,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -3903,7 +3917,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -3924,7 +3938,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -3945,7 +3959,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -3966,7 +3980,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -3987,7 +4001,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -4008,7 +4022,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -4029,7 +4043,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -4050,7 +4064,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -4071,7 +4085,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -4092,7 +4106,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -4113,7 +4127,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -4134,7 +4148,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -4155,7 +4169,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -4176,7 +4190,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -4197,7 +4211,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -4206,7 +4220,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -4215,7 +4229,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -4224,7 +4238,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -4233,7 +4247,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -4242,7 +4256,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -4251,7 +4265,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -4260,7 +4274,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -4269,7 +4283,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -4278,7 +4292,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -4287,7 +4301,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -4296,7 +4310,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -4305,7 +4319,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -4314,7 +4328,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -4323,7 +4337,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -4332,7 +4346,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -4341,7 +4355,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -4350,7 +4364,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -4359,7 +4373,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -4368,7 +4382,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -4377,7 +4391,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -4386,7 +4400,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -4395,7 +4409,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -4404,7 +4418,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -4413,7 +4427,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -4422,7 +4436,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -4431,7 +4445,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -4440,7 +4454,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -4449,7 +4463,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -4458,7 +4472,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
